--- a/Hardcore/codigos.xlsx
+++ b/Hardcore/codigos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,126 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NYHegLF47</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WqbIvya47</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BpqrZoy47</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LPxNcRJ47</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>YMjnnRd47</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>olBCeDP47</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>QguvCqI47</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>znFukVr47</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gNgwQML47</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ctkrZzs47</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>04-12-2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
